--- a/media/김승국_김성진_심민우_이서현_박웅균_이진우_엄현준_.xlsx
+++ b/media/김승국_김성진_심민우_이서현_박웅균_이진우_엄현준_.xlsx
@@ -459,11 +459,11 @@
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
@@ -1297,6 +1297,41 @@
           <t>김승국</t>
         </is>
       </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -1310,7 +1345,7 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>435</v>
+        <v>62.1</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
@@ -1318,7 +1353,7 @@
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>383</v>
+        <v>54.7</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
@@ -1328,6 +1363,41 @@
       <c r="G17" s="3" t="inlineStr">
         <is>
           <t>김성진</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>00:00:49</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>00:00:58</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>00:00:55</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>00:00:45</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>00:00:38</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>00:00:37</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>00:00:31</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1413,7 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>441</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
@@ -1351,7 +1421,7 @@
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>229</v>
+        <v>32.7</v>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
@@ -1361,6 +1431,41 @@
       <c r="G18" s="3" t="inlineStr">
         <is>
           <t>심민우</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>00:01:06</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>00:00:54</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>00:01:18</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>00:01:03</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>00:00:10</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1481,7 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>292</v>
+        <v>41.7</v>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
@@ -1384,7 +1489,7 @@
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>286</v>
+        <v>40.9</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
@@ -1394,6 +1499,41 @@
       <c r="G19" s="3" t="inlineStr">
         <is>
           <t>이서현</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>00:00:52</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>00:00:54</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>00:02:15</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>00:02:14</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>00:04:03</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>00:02:01</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>00:02:04</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1549,7 @@
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>368</v>
+        <v>52.6</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
@@ -1417,7 +1557,7 @@
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>275</v>
+        <v>39.3</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
@@ -1427,6 +1567,41 @@
       <c r="G20" s="3" t="inlineStr">
         <is>
           <t>박웅균</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>00:01:07</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>00:01:36</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>00:01:04</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>00:01:53</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>00:01:42</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
+        <is>
+          <t>00:01:59</t>
+        </is>
+      </c>
+      <c r="N20" s="3" t="inlineStr">
+        <is>
+          <t>00:00:38</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1617,7 @@
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>576</v>
+        <v>82.3</v>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
@@ -1460,6 +1635,41 @@
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>이진우</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1685,7 @@
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>650</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
@@ -1483,7 +1693,7 @@
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>594</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
@@ -1493,6 +1703,41 @@
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>엄현준</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>00:00:43</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>00:00:58</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>00:00:58</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>00:00:57</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>00:00:36</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>00:02:00</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>00:01:33</t>
         </is>
       </c>
     </row>
